--- a/src/main/resources/input/KNB/props/KNB.xlsx
+++ b/src/main/resources/input/KNB/props/KNB.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="351">
   <si>
     <t>Name</t>
   </si>
@@ -1063,6 +1063,21 @@
   </si>
   <si>
     <t>KNB</t>
+  </si>
+  <si>
+    <t>SIM: regtest</t>
+  </si>
+  <si>
+    <t>UGM: regtest</t>
+  </si>
+  <si>
+    <t>BSM: regtest</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>Should a regression test be performed on the results of this run?</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1277,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1474,6 +1489,10 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1763,14 +1782,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W154"/>
+  <dimension ref="A1:AA155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J75" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E64" sqref="E64"/>
       <selection pane="topRight" activeCell="E64" sqref="E64"/>
       <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
-      <selection pane="bottomRight" activeCell="H121" sqref="H121:K121"/>
+      <selection pane="bottomRight" activeCell="H93" sqref="H93:AA93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1786,19 +1805,22 @@
     <col min="9" max="9" width="14.69140625" customWidth="1"/>
     <col min="10" max="10" width="14.3046875" customWidth="1"/>
     <col min="11" max="11" width="15.69140625" customWidth="1"/>
-    <col min="12" max="12" width="2.3828125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="18.69140625" customWidth="1"/>
-    <col min="14" max="14" width="16.07421875" customWidth="1"/>
-    <col min="15" max="16" width="15.69140625" customWidth="1"/>
-    <col min="17" max="17" width="2.3828125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="19.921875" customWidth="1"/>
-    <col min="19" max="19" width="19.61328125" customWidth="1"/>
-    <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="41.07421875" customWidth="1"/>
-    <col min="23" max="23" width="30.07421875" customWidth="1"/>
+    <col min="12" max="12" width="14.69140625" style="76" customWidth="1"/>
+    <col min="13" max="13" width="2.3828125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="18.69140625" customWidth="1"/>
+    <col min="15" max="15" width="16.07421875" customWidth="1"/>
+    <col min="16" max="17" width="15.69140625" customWidth="1"/>
+    <col min="18" max="18" width="16.07421875" style="76" customWidth="1"/>
+    <col min="19" max="19" width="2.3828125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="19.921875" customWidth="1"/>
+    <col min="21" max="21" width="19.61328125" customWidth="1"/>
+    <col min="22" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="19.61328125" style="76" customWidth="1"/>
+    <col min="25" max="25" width="41.07421875" customWidth="1"/>
+    <col min="26" max="26" width="30.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="37.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1830,10 +1852,10 @@
       <c r="K1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>243</v>
       </c>
+      <c r="M1" s="13"/>
       <c r="N1" s="3" t="s">
         <v>243</v>
       </c>
@@ -1843,13 +1865,13 @@
       <c r="P1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="R1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="S1" s="13"/>
       <c r="T1" s="3" t="s">
         <v>243</v>
       </c>
@@ -1857,10 +1879,19 @@
         <v>243</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F2" s="56"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2" t="s">
@@ -1875,34 +1906,43 @@
       <c r="K2" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q2" s="14"/>
       <c r="R2" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="S2" s="14"/>
+      <c r="T2" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="X2" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="29.6" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>153</v>
       </c>
@@ -1920,18 +1960,21 @@
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="12"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="22"/>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="77"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1951,18 +1994,21 @@
         <v>4</v>
       </c>
       <c r="G4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="12"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="37"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="22"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U4" s="37"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="77"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1982,18 +2028,21 @@
         <v>4</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="12"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="37"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="22"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-    </row>
-    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U5" s="37"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="77"/>
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -2011,20 +2060,20 @@
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="77" t="s">
+      <c r="M6" s="15"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="77" t="b">
+      <c r="D7" s="79" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="b">
@@ -2032,38 +2081,44 @@
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="12"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="22"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
-      <c r="V7" s="76"/>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="80"/>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="F8" s="50"/>
       <c r="G8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="22"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
-      <c r="V8" s="76"/>
-    </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="80"/>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>159</v>
       </c>
@@ -2083,11 +2138,11 @@
         <v>16</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="Q9" s="22"/>
-      <c r="V9" s="41"/>
-    </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M9" s="15"/>
+      <c r="S9" s="22"/>
+      <c r="Y9" s="41"/>
+    </row>
+    <row r="10" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2107,18 +2162,21 @@
         <v>4</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="37"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="22"/>
       <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-    </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U10" s="37"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="77"/>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>161</v>
       </c>
@@ -2136,10 +2194,10 @@
       </c>
       <c r="F11" s="51"/>
       <c r="G11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M11" s="15"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>134</v>
       </c>
@@ -2157,18 +2215,21 @@
       </c>
       <c r="F12" s="51"/>
       <c r="G12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="37"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="22"/>
       <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-    </row>
-    <row r="13" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U12" s="37"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="77"/>
+    </row>
+    <row r="13" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -2186,19 +2247,22 @@
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="15"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="42"/>
-    </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="42"/>
+    </row>
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2218,18 +2282,21 @@
         <v>16</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="37"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-    </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U14" s="37"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="77"/>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2249,19 +2316,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="37"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="42"/>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U15" s="37"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="42"/>
+    </row>
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2281,20 +2351,23 @@
         <v>287</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="37"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="22"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="58"/>
-    </row>
-    <row r="17" spans="1:23" s="1" customFormat="1" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U16" s="37"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="58"/>
+    </row>
+    <row r="17" spans="1:26" s="1" customFormat="1" ht="17.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>215</v>
       </c>
@@ -2314,18 +2387,21 @@
         <v>216</v>
       </c>
       <c r="G17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="37"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-    </row>
-    <row r="18" spans="1:23" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U17" s="37"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="77"/>
+    </row>
+    <row r="18" spans="1:26" s="1" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>217</v>
       </c>
@@ -2357,10 +2433,10 @@
       <c r="K18" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="74" t="s">
-        <v>343</v>
-      </c>
+      <c r="L18" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="M18" s="15"/>
       <c r="N18" s="74" t="s">
         <v>343</v>
       </c>
@@ -2370,22 +2446,31 @@
       <c r="P18" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="S18" s="74" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q18" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="R18" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="S18" s="22"/>
       <c r="T18" s="74" t="s">
         <v>344</v>
       </c>
       <c r="U18" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="V18" s="42"/>
-    </row>
-    <row r="19" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V18" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="W18" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="X18" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y18" s="42"/>
+    </row>
+    <row r="19" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -2405,18 +2490,21 @@
         <v>212</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="12"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="31"/>
       <c r="U19" s="31"/>
-    </row>
-    <row r="20" spans="1:23" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="77"/>
+    </row>
+    <row r="20" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2439,19 +2527,22 @@
       <c r="H20" s="58"/>
       <c r="J20" s="58"/>
       <c r="K20" s="58"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="58"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
       <c r="P20" s="58"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="22"/>
       <c r="T20" s="58"/>
       <c r="U20" s="58"/>
-      <c r="V20" s="42"/>
-    </row>
-    <row r="21" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="42"/>
+    </row>
+    <row r="21" spans="1:26" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>139</v>
       </c>
@@ -2475,19 +2566,22 @@
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
       <c r="K21" s="58"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="58"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
       <c r="P21" s="58"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="58"/>
       <c r="U21" s="58"/>
-      <c r="V21" s="42"/>
-    </row>
-    <row r="22" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="42"/>
+    </row>
+    <row r="22" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>142</v>
       </c>
@@ -2507,19 +2601,22 @@
         <v>4</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="12"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="22"/>
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
-      <c r="V22" s="42"/>
-    </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="42"/>
+    </row>
+    <row r="23" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
@@ -2540,13 +2637,14 @@
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="36"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="37"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="37"/>
-      <c r="Q23" s="22"/>
-      <c r="V23" s="41"/>
-    </row>
-    <row r="24" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="O23" s="37"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="22"/>
+      <c r="Y23" s="41"/>
+    </row>
+    <row r="24" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>165</v>
       </c>
@@ -2564,18 +2662,21 @@
       </c>
       <c r="F24" s="51"/>
       <c r="G24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="12"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="22"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
-    </row>
-    <row r="25" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="77"/>
+    </row>
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2595,19 +2696,22 @@
         <v>16</v>
       </c>
       <c r="G25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="37"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="22"/>
       <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="42"/>
-    </row>
-    <row r="26" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U25" s="37"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="42"/>
+    </row>
+    <row r="26" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2630,23 +2734,32 @@
       <c r="I26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="37"/>
+      <c r="L26" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="P26" s="37"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="42"/>
-    </row>
-    <row r="27" spans="1:23" s="69" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q26" s="37"/>
+      <c r="R26" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="22"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="42"/>
+    </row>
+    <row r="27" spans="1:26" s="69" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="69" t="s">
         <v>336</v>
       </c>
@@ -2669,17 +2782,26 @@
       <c r="I27" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="22"/>
-      <c r="N27" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="22"/>
-      <c r="S27" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="57"/>
-    </row>
-    <row r="28" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="O27" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="22"/>
+      <c r="U27" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="57"/>
+    </row>
+    <row r="28" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -2699,19 +2821,22 @@
         <v>16</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="37"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="22"/>
       <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="42"/>
-    </row>
-    <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U28" s="37"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="42"/>
+    </row>
+    <row r="29" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -2731,19 +2856,22 @@
         <v>4</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="37"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="12"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="22"/>
       <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="42"/>
-    </row>
-    <row r="30" spans="1:23" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U29" s="37"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="42"/>
+    </row>
+    <row r="30" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>288</v>
       </c>
@@ -2761,12 +2889,15 @@
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="N30" s="37"/>
-      <c r="Q30" s="22"/>
-      <c r="V30" s="42"/>
-    </row>
-    <row r="31" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="77"/>
+      <c r="M30" s="22"/>
+      <c r="O30" s="37"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="22"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="42"/>
+    </row>
+    <row r="31" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -2787,19 +2918,22 @@
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
-      <c r="L31" s="22"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="35"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="22"/>
+      <c r="O31" s="37"/>
       <c r="P31" s="35"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="22"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="49"/>
-    </row>
-    <row r="32" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="49"/>
+    </row>
+    <row r="32" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="75" t="s">
         <v>255</v>
       </c>
@@ -2823,20 +2957,23 @@
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="27"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="37"/>
       <c r="P32" s="27"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="39"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="22"/>
       <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="49"/>
-    </row>
-    <row r="33" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U32" s="39"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="49"/>
+    </row>
+    <row r="33" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -2865,18 +3002,23 @@
       <c r="K33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L33" s="15"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="58"/>
+      <c r="L33" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="15"/>
+      <c r="N33" s="12"/>
       <c r="O33" s="58"/>
       <c r="P33" s="58"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="22"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
-    </row>
-    <row r="34" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="77"/>
+    </row>
+    <row r="34" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>167</v>
       </c>
@@ -2896,18 +3038,21 @@
         <v>10</v>
       </c>
       <c r="G34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="12"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="22"/>
       <c r="T34" s="31"/>
       <c r="U34" s="31"/>
-    </row>
-    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="77"/>
+    </row>
+    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>170</v>
       </c>
@@ -2927,19 +3072,22 @@
         <v>290</v>
       </c>
       <c r="G35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="12"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="37"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="44"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="22"/>
       <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="42"/>
-    </row>
-    <row r="36" spans="1:23" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U35" s="44"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="42"/>
+    </row>
+    <row r="36" spans="1:26" s="30" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A36" s="30" t="s">
         <v>260</v>
       </c>
@@ -2959,16 +3107,19 @@
         <v>291</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="37"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="44"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="37"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="22"/>
       <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="42"/>
-    </row>
-    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U36" s="44"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="42"/>
+    </row>
+    <row r="37" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -2987,18 +3138,21 @@
       <c r="F37" s="51"/>
       <c r="G37" s="15"/>
       <c r="H37" s="36"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="37"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="22"/>
       <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-    </row>
-    <row r="38" spans="1:23" s="32" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U37" s="37"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="77"/>
+    </row>
+    <row r="38" spans="1:26" s="32" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>272</v>
       </c>
@@ -3017,12 +3171,12 @@
       <c r="F38" s="51"/>
       <c r="G38" s="33"/>
       <c r="H38" s="36"/>
-      <c r="L38" s="33"/>
-      <c r="Q38" s="22"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="49"/>
-    </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="M38" s="33"/>
+      <c r="S38" s="22"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="49"/>
+    </row>
+    <row r="39" spans="1:26" s="1" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3043,18 +3197,21 @@
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="36"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="37"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="12"/>
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="22"/>
       <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-    </row>
-    <row r="40" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U39" s="37"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="77"/>
+    </row>
+    <row r="40" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3075,19 +3232,22 @@
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="36"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="37"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="12"/>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="22"/>
       <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="42"/>
-    </row>
-    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U40" s="37"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="42"/>
+    </row>
+    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,18 +3268,21 @@
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="36"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="37"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="12"/>
       <c r="O41" s="37"/>
       <c r="P41" s="37"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="22"/>
       <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-    </row>
-    <row r="42" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U41" s="37"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="77"/>
+    </row>
+    <row r="42" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>254</v>
       </c>
@@ -3143,18 +3306,21 @@
       <c r="I42" s="58"/>
       <c r="J42" s="58"/>
       <c r="K42" s="58"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="58"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="60"/>
       <c r="N42" s="58"/>
       <c r="O42" s="58"/>
       <c r="P42" s="58"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="60"/>
       <c r="T42" s="58"/>
       <c r="U42" s="58"/>
-    </row>
-    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="77"/>
+    </row>
+    <row r="43" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>173</v>
       </c>
@@ -3174,25 +3340,30 @@
         <v>16</v>
       </c>
       <c r="G43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="37"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="15"/>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
       <c r="P43" s="37"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="37" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="37"/>
       <c r="U43" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="42"/>
-    </row>
-    <row r="44" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V43" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="42"/>
+    </row>
+    <row r="44" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A44" s="32" t="s">
         <v>45</v>
       </c>
@@ -3213,19 +3384,21 @@
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="32"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="32"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
       <c r="P44" s="32"/>
-      <c r="Q44" s="22"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
+      <c r="S44" s="22"/>
       <c r="T44" s="32"/>
       <c r="U44" s="32"/>
-      <c r="V44" s="41"/>
-    </row>
-    <row r="45" spans="1:23" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="41"/>
+    </row>
+    <row r="45" spans="1:26" s="4" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="43" t="s">
         <v>47</v>
       </c>
@@ -3246,26 +3419,28 @@
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="28"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="28"/>
+      <c r="M45" s="15"/>
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
       <c r="P45" s="28"/>
-      <c r="Q45" s="22"/>
-      <c r="S45" s="28"/>
-      <c r="V45" s="41"/>
-    </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="77" t="s">
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="22"/>
+      <c r="U45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="41"/>
+    </row>
+    <row r="46" spans="1:26" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="77" t="b">
+      <c r="D46" s="79" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="b">
@@ -3275,38 +3450,44 @@
         <v>16</v>
       </c>
       <c r="G46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="44"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="15"/>
       <c r="N46" s="44"/>
       <c r="O46" s="44"/>
       <c r="P46" s="44"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="22"/>
       <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="78"/>
-    </row>
-    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="78"/>
+    </row>
+    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
       <c r="F47" s="50"/>
       <c r="G47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="12"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="22"/>
       <c r="T47" s="31"/>
       <c r="U47" s="31"/>
-      <c r="V47" s="78"/>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="77"/>
+      <c r="Y47" s="78"/>
+    </row>
+    <row r="48" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3324,18 +3505,21 @@
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="12"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="15"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="22"/>
       <c r="T48" s="31"/>
       <c r="U48" s="31"/>
-    </row>
-    <row r="49" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="77"/>
+    </row>
+    <row r="49" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -3355,18 +3539,21 @@
         <v>16</v>
       </c>
       <c r="G49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="12"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="37"/>
       <c r="P49" s="12"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="37"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="22"/>
       <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-    </row>
-    <row r="50" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U49" s="37"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="31"/>
+      <c r="X49" s="77"/>
+    </row>
+    <row r="50" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3386,19 +3573,22 @@
         <v>203</v>
       </c>
       <c r="G50" s="67"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="12"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="37"/>
       <c r="P50" s="12"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="37"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="22"/>
       <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="42"/>
-    </row>
-    <row r="51" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U50" s="37"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="31"/>
+      <c r="X50" s="77"/>
+      <c r="Y50" s="42"/>
+    </row>
+    <row r="51" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -3430,10 +3620,10 @@
       <c r="K51" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="74" t="s">
-        <v>343</v>
-      </c>
+      <c r="L51" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="M51" s="22"/>
       <c r="N51" s="74" t="s">
         <v>343</v>
       </c>
@@ -3443,23 +3633,32 @@
       <c r="P51" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="S51" s="74" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q51" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="R51" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="S51" s="22"/>
       <c r="T51" s="74" t="s">
         <v>344</v>
       </c>
       <c r="U51" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="V51" s="55"/>
-      <c r="W51"/>
-    </row>
-    <row r="52" spans="1:23" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="V51" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="W51" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="X51" s="77" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y51" s="55"/>
+      <c r="Z51"/>
+    </row>
+    <row r="52" spans="1:26" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="32" t="s">
         <v>178</v>
       </c>
@@ -3479,11 +3678,11 @@
         <v>4</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="Q52" s="22"/>
-      <c r="V52" s="41"/>
-    </row>
-    <row r="53" spans="1:23" s="4" customFormat="1" ht="86.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M52" s="15"/>
+      <c r="S52" s="22"/>
+      <c r="Y52" s="41"/>
+    </row>
+    <row r="53" spans="1:26" s="4" customFormat="1" ht="86.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="32" t="s">
         <v>180</v>
       </c>
@@ -3501,20 +3700,23 @@
       </c>
       <c r="F53" s="52"/>
       <c r="G53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="Q53" s="22"/>
-      <c r="S53" t="s">
-        <v>322</v>
-      </c>
-      <c r="T53" t="s">
-        <v>322</v>
-      </c>
+      <c r="M53" s="15"/>
+      <c r="S53" s="22"/>
       <c r="U53" t="s">
         <v>322</v>
       </c>
-      <c r="V53" s="41"/>
-    </row>
-    <row r="54" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V53" t="s">
+        <v>322</v>
+      </c>
+      <c r="W53" t="s">
+        <v>322</v>
+      </c>
+      <c r="X53" s="76" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y53" s="41"/>
+    </row>
+    <row r="54" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>57</v>
       </c>
@@ -3532,19 +3734,22 @@
       </c>
       <c r="F54" s="51"/>
       <c r="G54" s="63"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="12"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="37"/>
       <c r="P54" s="12"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="37"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="22"/>
       <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="42"/>
-    </row>
-    <row r="55" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U54" s="37"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="77"/>
+      <c r="Y54" s="42"/>
+    </row>
+    <row r="55" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -3562,19 +3767,22 @@
       </c>
       <c r="F55" s="51"/>
       <c r="G55" s="63"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="12"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="15"/>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="37"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="22"/>
       <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="42"/>
-    </row>
-    <row r="56" spans="1:23" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U55" s="37"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="31"/>
+      <c r="X55" s="77"/>
+      <c r="Y55" s="42"/>
+    </row>
+    <row r="56" spans="1:26" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>61</v>
       </c>
@@ -3595,14 +3803,16 @@
       </c>
       <c r="G56" s="15"/>
       <c r="H56" s="32"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="37"/>
+      <c r="M56" s="15"/>
       <c r="N56" s="37"/>
-      <c r="Q56" s="22"/>
-      <c r="S56" s="37"/>
-      <c r="V56" s="41"/>
-    </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="O56" s="37"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="22"/>
+      <c r="U56" s="37"/>
+      <c r="X56" s="77"/>
+      <c r="Y56" s="41"/>
+    </row>
+    <row r="57" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>183</v>
       </c>
@@ -3620,19 +3830,22 @@
       </c>
       <c r="F57" s="51"/>
       <c r="G57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="12"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="15"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="22"/>
       <c r="T57" s="31"/>
       <c r="U57" s="31"/>
-      <c r="V57" s="42"/>
-    </row>
-    <row r="58" spans="1:23" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="V57" s="31"/>
+      <c r="W57" s="31"/>
+      <c r="X57" s="77"/>
+      <c r="Y57" s="42"/>
+    </row>
+    <row r="58" spans="1:26" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A58" s="64" t="s">
         <v>278</v>
       </c>
@@ -3654,17 +3867,20 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="17"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="22"/>
-      <c r="S58" s="11"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="49"/>
-    </row>
-    <row r="59" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="22"/>
+      <c r="U58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="49"/>
+    </row>
+    <row r="59" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>280</v>
       </c>
@@ -3682,12 +3898,12 @@
       </c>
       <c r="F59" s="51"/>
       <c r="G59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="49"/>
-    </row>
-    <row r="60" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="49"/>
+    </row>
+    <row r="60" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>185</v>
       </c>
@@ -3705,12 +3921,12 @@
       </c>
       <c r="F60" s="51"/>
       <c r="G60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="Q60" s="22"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="49"/>
-    </row>
-    <row r="61" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M60" s="15"/>
+      <c r="S60" s="22"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="49"/>
+    </row>
+    <row r="61" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>283</v>
       </c>
@@ -3732,16 +3948,18 @@
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="22"/>
       <c r="N61" s="28"/>
       <c r="O61" s="28"/>
       <c r="P61" s="28"/>
-      <c r="Q61" s="22"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="49"/>
-    </row>
-    <row r="62" spans="1:23" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="22"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="49"/>
+    </row>
+    <row r="62" spans="1:26" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A62" s="11" t="s">
         <v>233</v>
       </c>
@@ -3765,20 +3983,23 @@
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="17"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="22"/>
+      <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
+      <c r="S62" s="22"/>
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="49"/>
-    </row>
-    <row r="63" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="49"/>
+    </row>
+    <row r="63" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>187</v>
       </c>
@@ -3798,11 +4019,11 @@
         <v>19</v>
       </c>
       <c r="G63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="Q63" s="22"/>
-      <c r="V63" s="42"/>
-    </row>
-    <row r="64" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M63" s="15"/>
+      <c r="S63" s="22"/>
+      <c r="Y63" s="42"/>
+    </row>
+    <row r="64" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -3821,19 +4042,22 @@
       <c r="F64" s="51"/>
       <c r="G64" s="15"/>
       <c r="H64" s="44"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="44"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="15"/>
       <c r="N64" s="44"/>
-      <c r="O64" s="12"/>
+      <c r="O64" s="44"/>
       <c r="P64" s="12"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="44"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="22"/>
       <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="42"/>
-    </row>
-    <row r="65" spans="1:23" s="36" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="U64" s="44"/>
+      <c r="V64" s="31"/>
+      <c r="W64" s="31"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="42"/>
+    </row>
+    <row r="65" spans="1:26" s="36" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>294</v>
       </c>
@@ -3854,12 +4078,15 @@
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="44"/>
-      <c r="L65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="4"/>
-    </row>
-    <row r="66" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L65" s="77"/>
+      <c r="M65" s="22"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="22"/>
+      <c r="X65" s="77"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>65</v>
       </c>
@@ -3879,11 +4106,11 @@
         <v>212</v>
       </c>
       <c r="G66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="Q66" s="22"/>
-      <c r="V66" s="42"/>
-    </row>
-    <row r="67" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M66" s="15"/>
+      <c r="S66" s="22"/>
+      <c r="Y66" s="42"/>
+    </row>
+    <row r="67" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>296</v>
       </c>
@@ -3898,11 +4125,11 @@
       </c>
       <c r="F67" s="51"/>
       <c r="G67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="V67" s="42"/>
-    </row>
-    <row r="68" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="Y67" s="42"/>
+    </row>
+    <row r="68" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="64" t="s">
         <v>252</v>
       </c>
@@ -3920,11 +4147,11 @@
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="V68" s="42"/>
-    </row>
-    <row r="69" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="Y68" s="42"/>
+    </row>
+    <row r="69" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3944,18 +4171,21 @@
         <v>205</v>
       </c>
       <c r="G69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="37"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="37"/>
-      <c r="O69" s="12"/>
+      <c r="O69" s="37"/>
       <c r="P69" s="12"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="37"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="22"/>
       <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-    </row>
-    <row r="70" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U69" s="37"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="31"/>
+      <c r="X69" s="77"/>
+    </row>
+    <row r="70" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -3976,18 +4206,21 @@
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="44"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="44"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="44"/>
-      <c r="O70" s="12"/>
+      <c r="O70" s="44"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="22"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="44"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="22"/>
       <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-    </row>
-    <row r="71" spans="1:23" s="19" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U70" s="44"/>
+      <c r="V70" s="31"/>
+      <c r="W70" s="31"/>
+      <c r="X70" s="44"/>
+    </row>
+    <row r="71" spans="1:26" s="19" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A71" s="19" t="s">
         <v>244</v>
       </c>
@@ -4008,17 +4241,20 @@
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="44"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="44"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="15"/>
       <c r="N71" s="44"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="22"/>
       <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="42"/>
-    </row>
-    <row r="72" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U71" s="44"/>
+      <c r="V71" s="31"/>
+      <c r="W71" s="31"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="42"/>
+    </row>
+    <row r="72" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>189</v>
       </c>
@@ -4038,19 +4274,22 @@
         <v>204</v>
       </c>
       <c r="G72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="12"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="15"/>
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="22"/>
       <c r="T72" s="31"/>
       <c r="U72" s="31"/>
-      <c r="V72" s="42"/>
-    </row>
-    <row r="73" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="42"/>
+    </row>
+    <row r="73" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -4082,10 +4321,10 @@
       <c r="K73" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="L73" s="22"/>
-      <c r="M73" s="74" t="s">
-        <v>343</v>
-      </c>
+      <c r="L73" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M73" s="22"/>
       <c r="N73" s="74" t="s">
         <v>343</v>
       </c>
@@ -4095,21 +4334,30 @@
       <c r="P73" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="S73" s="74" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q73" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="R73" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="S73" s="22"/>
       <c r="T73" s="74" t="s">
         <v>344</v>
       </c>
       <c r="U73" s="74" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V73" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="W73" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="X73" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="34" t="s">
         <v>192</v>
       </c>
@@ -4127,18 +4375,21 @@
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="58"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="15"/>
       <c r="N74" s="58"/>
       <c r="O74" s="58"/>
       <c r="P74" s="58"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="58"/>
-      <c r="S74" s="58"/>
+      <c r="Q74" s="58"/>
+      <c r="R74" s="77"/>
+      <c r="S74" s="22"/>
       <c r="T74" s="58"/>
       <c r="U74" s="58"/>
-    </row>
-    <row r="75" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V74" s="58"/>
+      <c r="W74" s="58"/>
+      <c r="X74" s="77"/>
+    </row>
+    <row r="75" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="32" t="s">
         <v>74</v>
       </c>
@@ -4159,14 +4410,16 @@
       </c>
       <c r="G75" s="15"/>
       <c r="H75" s="32"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="32"/>
+      <c r="M75" s="15"/>
       <c r="N75" s="32"/>
-      <c r="Q75" s="22"/>
-      <c r="S75" s="32"/>
-      <c r="V75" s="41"/>
-    </row>
-    <row r="76" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="O75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="22"/>
+      <c r="U75" s="32"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="41"/>
+    </row>
+    <row r="76" spans="1:26" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="32" t="s">
         <v>339</v>
       </c>
@@ -4187,14 +4440,16 @@
       </c>
       <c r="G76" s="72"/>
       <c r="H76" s="32"/>
-      <c r="L76" s="72"/>
-      <c r="M76" s="32"/>
+      <c r="M76" s="72"/>
       <c r="N76" s="32"/>
-      <c r="Q76" s="72"/>
-      <c r="S76" s="32"/>
-      <c r="V76" s="41"/>
-    </row>
-    <row r="77" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="O76" s="32"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="72"/>
+      <c r="U76" s="32"/>
+      <c r="X76" s="32"/>
+      <c r="Y76" s="41"/>
+    </row>
+    <row r="77" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>211</v>
       </c>
@@ -4214,18 +4469,21 @@
         <v>16</v>
       </c>
       <c r="G77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="37"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="15"/>
       <c r="N77" s="37"/>
-      <c r="O77" s="12"/>
+      <c r="O77" s="37"/>
       <c r="P77" s="12"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="37"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="77"/>
+      <c r="S77" s="22"/>
       <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-    </row>
-    <row r="78" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U77" s="37"/>
+      <c r="V77" s="31"/>
+      <c r="W77" s="31"/>
+      <c r="X77" s="77"/>
+    </row>
+    <row r="78" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -4246,18 +4504,21 @@
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="32"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="32"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="15"/>
       <c r="N78" s="32"/>
-      <c r="O78" s="12"/>
+      <c r="O78" s="32"/>
       <c r="P78" s="12"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="32"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="22"/>
       <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-    </row>
-    <row r="79" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U78" s="32"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="31"/>
+      <c r="X78" s="32"/>
+    </row>
+    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4289,10 +4550,10 @@
       <c r="K79" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="L79" s="22"/>
-      <c r="M79" s="74" t="s">
-        <v>343</v>
-      </c>
+      <c r="L79" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="M79" s="22"/>
       <c r="N79" s="74" t="s">
         <v>343</v>
       </c>
@@ -4302,21 +4563,30 @@
       <c r="P79" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="74" t="s">
-        <v>344</v>
-      </c>
-      <c r="S79" s="74" t="s">
-        <v>344</v>
-      </c>
+      <c r="Q79" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="R79" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="S79" s="22"/>
       <c r="T79" s="74" t="s">
         <v>344</v>
       </c>
       <c r="U79" s="74" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V79" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="W79" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="X79" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -4337,18 +4607,21 @@
       </c>
       <c r="G80" s="15"/>
       <c r="H80" s="44"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="44"/>
+      <c r="L80" s="77"/>
+      <c r="M80" s="15"/>
       <c r="N80" s="44"/>
-      <c r="O80" s="12"/>
+      <c r="O80" s="44"/>
       <c r="P80" s="12"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="44"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="22"/>
       <c r="T80" s="31"/>
-      <c r="U80" s="31"/>
-    </row>
-    <row r="81" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U80" s="44"/>
+      <c r="V80" s="31"/>
+      <c r="W80" s="31"/>
+      <c r="X80" s="44"/>
+    </row>
+    <row r="81" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
@@ -4369,14 +4642,16 @@
       </c>
       <c r="G81" s="15"/>
       <c r="H81" s="32"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="32"/>
+      <c r="M81" s="15"/>
       <c r="N81" s="32"/>
-      <c r="Q81" s="22"/>
-      <c r="S81" s="32"/>
-      <c r="V81" s="41"/>
-    </row>
-    <row r="82" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="O81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="22"/>
+      <c r="U81" s="32"/>
+      <c r="X81" s="32"/>
+      <c r="Y81" s="41"/>
+    </row>
+    <row r="82" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
         <v>299</v>
       </c>
@@ -4392,11 +4667,11 @@
       <c r="F82" s="51"/>
       <c r="G82" s="22"/>
       <c r="H82" s="32"/>
-      <c r="L82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="V82" s="42"/>
-    </row>
-    <row r="83" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M82" s="22"/>
+      <c r="S82" s="22"/>
+      <c r="Y82" s="42"/>
+    </row>
+    <row r="83" spans="1:27" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>193</v>
       </c>
@@ -4416,20 +4691,23 @@
         <v>19</v>
       </c>
       <c r="G83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="12"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="15"/>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="77"/>
+      <c r="S83" s="22"/>
       <c r="T83" s="31"/>
       <c r="U83" s="31"/>
-      <c r="V83" s="42"/>
-      <c r="W83" s="4"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="V83" s="31"/>
+      <c r="W83" s="31"/>
+      <c r="X83" s="77"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="4"/>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>301</v>
       </c>
@@ -4445,12 +4723,12 @@
       <c r="E84" s="4"/>
       <c r="F84" s="51"/>
       <c r="G84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="4"/>
-    </row>
-    <row r="85" spans="1:23" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="Y84" s="42"/>
+      <c r="Z84" s="4"/>
+    </row>
+    <row r="85" spans="1:27" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>304</v>
       </c>
@@ -4466,12 +4744,12 @@
       <c r="E85" s="4"/>
       <c r="F85" s="51"/>
       <c r="G85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="V85" s="42"/>
-      <c r="W85" s="4"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="M85" s="22"/>
+      <c r="S85" s="22"/>
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="4"/>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>307</v>
       </c>
@@ -4487,12 +4765,12 @@
       <c r="E86" s="4"/>
       <c r="F86" s="51"/>
       <c r="G86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="V86" s="42"/>
-      <c r="W86" s="4"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="M86" s="22"/>
+      <c r="S86" s="22"/>
+      <c r="Y86" s="42"/>
+      <c r="Z86" s="4"/>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>310</v>
       </c>
@@ -4508,12 +4786,12 @@
       <c r="E87" s="4"/>
       <c r="F87" s="51"/>
       <c r="G87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="4"/>
-    </row>
-    <row r="88" spans="1:23" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="M87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="4"/>
+    </row>
+    <row r="88" spans="1:27" s="4" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>196</v>
       </c>
@@ -4533,11 +4811,11 @@
         <v>206</v>
       </c>
       <c r="G88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="V88" s="42"/>
-    </row>
-    <row r="89" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M88" s="22"/>
+      <c r="S88" s="22"/>
+      <c r="Y88" s="42"/>
+    </row>
+    <row r="89" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>85</v>
       </c>
@@ -4569,11 +4847,11 @@
       <c r="K89" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="L89" s="22"/>
-      <c r="M89" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="N89" s="58" t="s">
+      <c r="L89" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="M89" s="22"/>
+      <c r="N89" s="37" t="s">
         <v>270</v>
       </c>
       <c r="O89" s="58" t="s">
@@ -4582,22 +4860,31 @@
       <c r="P89" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="S89" s="31" t="s">
-        <v>271</v>
-      </c>
+      <c r="Q89" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="R89" s="77" t="s">
+        <v>270</v>
+      </c>
+      <c r="S89" s="22"/>
       <c r="T89" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="U89" s="58" t="s">
+      <c r="U89" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="V89" s="42"/>
-    </row>
-    <row r="90" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V89" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="W89" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="X89" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y89" s="42"/>
+    </row>
+    <row r="90" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -4618,19 +4905,22 @@
       </c>
       <c r="G90" s="15"/>
       <c r="H90" s="36"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="37"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="22"/>
       <c r="N90" s="37"/>
-      <c r="O90" s="12"/>
+      <c r="O90" s="37"/>
       <c r="P90" s="12"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="31"/>
-      <c r="S90" s="37"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="77"/>
+      <c r="S90" s="22"/>
       <c r="T90" s="31"/>
-      <c r="U90" s="31"/>
-      <c r="V90" s="42"/>
-    </row>
-    <row r="91" spans="1:23" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="U90" s="37"/>
+      <c r="V90" s="31"/>
+      <c r="W90" s="31"/>
+      <c r="X90" s="77"/>
+      <c r="Y90" s="42"/>
+    </row>
+    <row r="91" spans="1:27" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
@@ -4651,14 +4941,16 @@
       </c>
       <c r="G91" s="15"/>
       <c r="H91" s="36"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="37"/>
+      <c r="M91" s="22"/>
       <c r="N91" s="37"/>
-      <c r="Q91" s="22"/>
-      <c r="S91" s="37"/>
-      <c r="V91" s="41"/>
-    </row>
-    <row r="92" spans="1:23" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O91" s="37"/>
+      <c r="R91" s="77"/>
+      <c r="S91" s="22"/>
+      <c r="U91" s="37"/>
+      <c r="X91" s="77"/>
+      <c r="Y91" s="41"/>
+    </row>
+    <row r="92" spans="1:27" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>147</v>
       </c>
@@ -4678,199 +4970,229 @@
         <v>16</v>
       </c>
       <c r="G92" s="15"/>
-      <c r="L92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="V92" s="42"/>
-    </row>
-    <row r="93" spans="1:23" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
+      <c r="M92" s="22"/>
+      <c r="S92" s="22"/>
+      <c r="Y92" s="42"/>
+    </row>
+    <row r="93" spans="1:27" s="4" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D93" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="72"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
+      <c r="L93" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="M93" s="33"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="S93" s="33"/>
+      <c r="T93" s="32"/>
+      <c r="U93" s="32"/>
+      <c r="V93" s="32"/>
+      <c r="W93" s="32"/>
+      <c r="X93" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y93" s="59"/>
+      <c r="Z93" s="32"/>
+      <c r="AA93" s="32"/>
+    </row>
+    <row r="94" spans="1:27" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="50" t="s">
+      <c r="D94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="G93" s="15"/>
-      <c r="H93" s="44"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="31"/>
-      <c r="S93" s="44"/>
-      <c r="T93" s="31"/>
-      <c r="U93" s="31"/>
-    </row>
-    <row r="94" spans="1:23" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A94" s="59" t="s">
+      <c r="G94" s="15"/>
+      <c r="H94" s="44"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="31"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="31"/>
+      <c r="W94" s="31"/>
+      <c r="X94" s="44"/>
+    </row>
+    <row r="95" spans="1:27" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="59" t="s">
         <v>312</v>
-      </c>
-      <c r="B94" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="D94" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="44"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="Q94" s="22"/>
-      <c r="V94" s="46"/>
-    </row>
-    <row r="95" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A95" s="59" t="s">
-        <v>218</v>
       </c>
       <c r="B95" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="D95" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="22"/>
+      <c r="H95" s="44"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="22"/>
+      <c r="X95" s="77"/>
+      <c r="Y95" s="46"/>
+    </row>
+    <row r="96" spans="1:27" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="D95" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G95" s="15"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="31"/>
-      <c r="S95" s="31"/>
-      <c r="T95" s="31"/>
-      <c r="U95" s="31"/>
-      <c r="W95" s="4"/>
-    </row>
-    <row r="96" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1" t="b">
+      <c r="D96" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" s="59" t="b">
         <v>1</v>
       </c>
       <c r="F96" s="50" t="s">
         <v>4</v>
       </c>
       <c r="G96" s="15"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="12"/>
+      <c r="L96" s="77"/>
+      <c r="M96" s="22"/>
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="31"/>
-      <c r="S96" s="31"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="77"/>
+      <c r="S96" s="22"/>
       <c r="T96" s="31"/>
       <c r="U96" s="31"/>
-      <c r="V96" s="42"/>
-    </row>
-    <row r="97" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" s="26" t="b">
-        <v>0</v>
+      <c r="V96" s="31"/>
+      <c r="W96" s="31"/>
+      <c r="X96" s="77"/>
+      <c r="Z96" s="4"/>
+    </row>
+    <row r="97" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F97" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="G97" s="22"/>
-      <c r="L97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="L97" s="77"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="77"/>
+      <c r="S97" s="22"/>
       <c r="T97" s="31"/>
       <c r="U97" s="31"/>
-      <c r="V97" s="42"/>
-    </row>
-    <row r="98" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A98" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D98" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="G98" s="15"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="12"/>
-      <c r="O98" s="12"/>
-      <c r="P98" s="12"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="31"/>
-      <c r="S98" s="31"/>
+      <c r="V97" s="31"/>
+      <c r="W97" s="31"/>
+      <c r="X97" s="77"/>
+      <c r="Y97" s="42"/>
+    </row>
+    <row r="98" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="L98" s="77"/>
+      <c r="M98" s="22"/>
+      <c r="R98" s="77"/>
+      <c r="S98" s="22"/>
       <c r="T98" s="31"/>
       <c r="U98" s="31"/>
-      <c r="V98" s="42"/>
-    </row>
-    <row r="99" spans="1:23" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V98" s="31"/>
+      <c r="W98" s="31"/>
+      <c r="X98" s="77"/>
+      <c r="Y98" s="42"/>
+    </row>
+    <row r="99" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="D99" s="4" t="b">
         <v>0</v>
@@ -4878,370 +5200,410 @@
       <c r="E99" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F99" s="66"/>
+      <c r="F99" s="51" t="s">
+        <v>326</v>
+      </c>
       <c r="G99" s="15"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="12"/>
+      <c r="L99" s="77"/>
+      <c r="M99" s="22"/>
       <c r="N99" s="12"/>
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="31"/>
-      <c r="S99" s="31"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="77"/>
+      <c r="S99" s="22"/>
       <c r="T99" s="31"/>
       <c r="U99" s="31"/>
-      <c r="V99" s="42"/>
-    </row>
-    <row r="100" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V99" s="31"/>
+      <c r="W99" s="31"/>
+      <c r="X99" s="77"/>
+      <c r="Y99" s="42"/>
+    </row>
+    <row r="100" spans="1:26" s="9" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="D100" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="51" t="s">
-        <v>212</v>
-      </c>
+      <c r="F100" s="66"/>
       <c r="G100" s="15"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="31"/>
-      <c r="S100" s="31"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="22"/>
       <c r="T100" s="31"/>
       <c r="U100" s="31"/>
-      <c r="V100" s="46"/>
-    </row>
-    <row r="101" spans="1:23" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D101" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="50" t="s">
-        <v>16</v>
+      <c r="V100" s="31"/>
+      <c r="W100" s="31"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="42"/>
+    </row>
+    <row r="101" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="51" t="s">
+        <v>212</v>
       </c>
       <c r="G101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="12"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="37"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="22"/>
       <c r="T101" s="31"/>
       <c r="U101" s="31"/>
-    </row>
-    <row r="102" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="5" t="s">
+      <c r="V101" s="31"/>
+      <c r="W101" s="31"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="46"/>
+    </row>
+    <row r="102" spans="1:26" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="22"/>
+      <c r="T102" s="31"/>
+      <c r="U102" s="37"/>
+      <c r="V102" s="31"/>
+      <c r="W102" s="31"/>
+      <c r="X102" s="77"/>
+    </row>
+    <row r="103" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" s="62" t="s">
+      <c r="D103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="G102" s="22"/>
-      <c r="H102" s="36"/>
-      <c r="L102" s="22"/>
-      <c r="Q102" s="22"/>
-    </row>
-    <row r="103" spans="1:23" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
+      <c r="G103" s="22"/>
+      <c r="H103" s="36"/>
+      <c r="M103" s="22"/>
+      <c r="S103" s="22"/>
+    </row>
+    <row r="104" spans="1:26" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F103" s="53" t="s">
+      <c r="D104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="36"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="44"/>
-      <c r="N103" s="44"/>
-      <c r="O103" s="12"/>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="31"/>
-      <c r="S103" s="44"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-      <c r="V103" s="42"/>
-      <c r="W103" s="4"/>
-    </row>
-    <row r="104" spans="1:23" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A104" s="60" t="s">
+      <c r="G104" s="15"/>
+      <c r="H104" s="36"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="44"/>
+      <c r="O104" s="44"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="31"/>
+      <c r="U104" s="44"/>
+      <c r="V104" s="31"/>
+      <c r="W104" s="31"/>
+      <c r="X104" s="44"/>
+      <c r="Y104" s="42"/>
+      <c r="Z104" s="4"/>
+    </row>
+    <row r="105" spans="1:26" s="37" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A105" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B105" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C104" s="46" t="s">
+      <c r="C105" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="D104" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" s="53" t="s">
+      <c r="D105" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="44"/>
-      <c r="O104" s="58"/>
-      <c r="P104" s="58"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="58"/>
-      <c r="S104" s="44"/>
-      <c r="T104" s="58"/>
-      <c r="U104" s="58"/>
-      <c r="V104" s="46"/>
-      <c r="W104" s="4"/>
-    </row>
-    <row r="105" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A105" s="1" t="s">
+      <c r="G105" s="22"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="58"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="44"/>
+      <c r="O105" s="44"/>
+      <c r="P105" s="58"/>
+      <c r="Q105" s="58"/>
+      <c r="R105" s="44"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="58"/>
+      <c r="U105" s="44"/>
+      <c r="V105" s="58"/>
+      <c r="W105" s="58"/>
+      <c r="X105" s="44"/>
+      <c r="Y105" s="46"/>
+      <c r="Z105" s="4"/>
+    </row>
+    <row r="106" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D105" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="37"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="31"/>
-      <c r="S105" s="37"/>
-      <c r="T105" s="31"/>
-      <c r="U105" s="31"/>
-    </row>
-    <row r="106" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="37"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="22"/>
+      <c r="T106" s="31"/>
+      <c r="U106" s="37"/>
+      <c r="V106" s="31"/>
+      <c r="W106" s="31"/>
+      <c r="X106" s="77"/>
+    </row>
+    <row r="107" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" s="50" t="s">
+      <c r="D107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G106" s="15"/>
-      <c r="L106" s="15"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="31"/>
-      <c r="S106" s="31"/>
-      <c r="T106" s="31"/>
-      <c r="U106" s="31"/>
-    </row>
-    <row r="107" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="50" t="s">
-        <v>107</v>
-      </c>
       <c r="G107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="37"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="12"/>
       <c r="O107" s="12"/>
       <c r="P107" s="12"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="31"/>
-      <c r="S107" s="37"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="22"/>
       <c r="T107" s="31"/>
       <c r="U107" s="31"/>
-    </row>
-    <row r="108" spans="1:23" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="V107" s="31"/>
+      <c r="W107" s="31"/>
+      <c r="X107" s="77"/>
+    </row>
+    <row r="108" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="G108" s="15"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="37"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="31"/>
+      <c r="U108" s="37"/>
+      <c r="V108" s="31"/>
+      <c r="W108" s="31"/>
+      <c r="X108" s="77"/>
+    </row>
+    <row r="109" spans="1:26" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E108" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="50" t="s">
+      <c r="D109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="44" t="s">
+      <c r="G109" s="15"/>
+      <c r="H109" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="I108" s="44" t="s">
+      <c r="I109" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="J108" s="44" t="s">
+      <c r="J109" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="K108" s="44" t="s">
+      <c r="K109" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="L108" s="22"/>
-      <c r="M108" s="74" t="s">
+      <c r="L109" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M109" s="22"/>
+      <c r="N109" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="N108" s="74" t="s">
+      <c r="O109" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="O108" s="74" t="s">
+      <c r="P109" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="P108" s="74" t="s">
+      <c r="Q109" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="74" t="s">
+      <c r="R109" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="S109" s="22"/>
+      <c r="T109" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="S108" s="74" t="s">
+      <c r="U109" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="T108" s="74" t="s">
+      <c r="V109" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="U108" s="74" t="s">
+      <c r="W109" s="74" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="4" t="s">
+      <c r="X109" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="D109" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="44"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="44"/>
-      <c r="N109" s="44"/>
-      <c r="Q109" s="22"/>
-      <c r="S109" s="44"/>
-      <c r="V109" s="41"/>
-    </row>
-    <row r="110" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D110" s="4" t="b">
         <v>1</v>
@@ -5254,110 +5616,88 @@
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="44"/>
-      <c r="L110" s="15"/>
-      <c r="Q110" s="22"/>
-      <c r="V110" s="41"/>
-    </row>
-    <row r="111" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>117</v>
-      </c>
-      <c r="D111" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="52" t="s">
-        <v>16</v>
+      <c r="M110" s="15"/>
+      <c r="N110" s="44"/>
+      <c r="O110" s="44"/>
+      <c r="R110" s="44"/>
+      <c r="S110" s="22"/>
+      <c r="U110" s="44"/>
+      <c r="X110" s="44"/>
+      <c r="Y110" s="41"/>
+    </row>
+    <row r="111" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="51" t="s">
+        <v>212</v>
       </c>
       <c r="G111" s="15"/>
       <c r="H111" s="44"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="44"/>
-      <c r="N111" s="44"/>
-      <c r="Q111" s="22"/>
-      <c r="V111" s="41"/>
-    </row>
-    <row r="112" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="M111" s="15"/>
+      <c r="S111" s="22"/>
+      <c r="Y111" s="41"/>
+    </row>
+    <row r="112" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
         <v>5</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F112" s="61" t="s">
+      <c r="C112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="52" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="15"/>
       <c r="H112" s="44"/>
-      <c r="I112" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="J112" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="K112" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="L112" s="15"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O112" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="P112" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="31"/>
-      <c r="S112" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="T112" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="U112" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A113" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" s="59" t="s">
+      <c r="M112" s="15"/>
+      <c r="N112" s="44"/>
+      <c r="O112" s="44"/>
+      <c r="R112" s="44"/>
+      <c r="S112" s="22"/>
+      <c r="Y112" s="41"/>
+    </row>
+    <row r="113" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="D113" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="59" t="b">
+      <c r="C113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F113" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G113" s="45"/>
+      <c r="G113" s="15"/>
       <c r="H113" s="44"/>
       <c r="I113" s="58" t="s">
         <v>4</v>
@@ -5368,41 +5708,50 @@
       <c r="K113" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="L113" s="15"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O113" s="58" t="s">
+      <c r="L113" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M113" s="15"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12" t="s">
         <v>4</v>
       </c>
       <c r="P113" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="31"/>
-      <c r="S113" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="T113" s="58" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q113" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R113" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S113" s="22"/>
+      <c r="T113" s="31"/>
       <c r="U113" s="58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="V113" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="W113" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X113" s="77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A114" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="59" t="s">
-        <v>122</v>
+        <v>318</v>
       </c>
       <c r="D114" s="59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="59" t="b">
         <v>1</v>
@@ -5412,76 +5761,112 @@
       </c>
       <c r="G114" s="45"/>
       <c r="H114" s="44"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I114" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L114" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M114" s="15"/>
+      <c r="N114" s="12"/>
       <c r="O114" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P114" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="31"/>
-      <c r="S114" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="T114" s="58" t="s">
-        <v>4</v>
-      </c>
+      <c r="P114" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q114" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R114" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S114" s="22"/>
+      <c r="T114" s="31"/>
       <c r="U114" s="58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A115" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="V114" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="W114" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X114" s="77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F115" s="51"/>
+      <c r="C115" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="61" t="s">
+        <v>16</v>
+      </c>
       <c r="G115" s="45"/>
       <c r="H115" s="44"/>
-      <c r="I115"/>
-      <c r="J115"/>
-      <c r="K115"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="12"/>
+      <c r="L115" s="77"/>
+      <c r="M115" s="15"/>
       <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="31"/>
-      <c r="S115" s="37"/>
+      <c r="O115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q115" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R115" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S115" s="22"/>
       <c r="T115" s="31"/>
-      <c r="U115" s="31"/>
-    </row>
-    <row r="116" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B116" s="5" t="s">
+      <c r="U115" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="V115" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="W115" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X115" s="77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A116" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D116" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" s="5" t="b">
+      <c r="C116" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F116" s="51"/>
@@ -5490,347 +5875,419 @@
       <c r="I116"/>
       <c r="J116"/>
       <c r="K116"/>
-      <c r="L116" s="22"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116" s="22"/>
-      <c r="R116"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
-    </row>
-    <row r="117" spans="1:22" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A117" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E117" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="52" t="s">
-        <v>19</v>
-      </c>
+      <c r="L116" s="76"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="77"/>
+      <c r="S116" s="22"/>
+      <c r="T116" s="31"/>
+      <c r="U116" s="37"/>
+      <c r="V116" s="31"/>
+      <c r="W116" s="31"/>
+      <c r="X116" s="77"/>
+    </row>
+    <row r="117" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D117" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" s="51"/>
       <c r="G117" s="45"/>
       <c r="H117" s="44"/>
-      <c r="I117" s="58" t="s">
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117" s="76"/>
+      <c r="M117" s="22"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117" s="76"/>
+      <c r="S117" s="22"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117" s="76"/>
+    </row>
+    <row r="118" spans="1:25" s="4" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A118" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="45"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="J117" s="58" t="s">
+      <c r="J118" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="K117" s="58" t="s">
+      <c r="K118" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="L117" s="15"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="37" t="s">
+      <c r="L118" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="O117" s="58" t="s">
+      <c r="M118" s="15"/>
+      <c r="N118" s="37"/>
+      <c r="O118" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="P117" s="58" t="s">
+      <c r="P118" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="Q117" s="22"/>
-      <c r="S117" s="37" t="s">
+      <c r="Q118" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="T117" s="58" t="s">
+      <c r="R118" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="U117" s="58" t="s">
+      <c r="S118" s="22"/>
+      <c r="U118" s="37" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="59" t="s">
+      <c r="V118" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="W118" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="X118" s="77" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="59" t="s">
         <v>126</v>
-      </c>
-      <c r="B118" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="D118" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E118" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F118" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="15"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L118" s="15"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="O118" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="P118" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="44"/>
-      <c r="S118" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="T118" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="U118" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="59" t="s">
-        <v>232</v>
       </c>
       <c r="B119" s="59" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="15"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L119" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M119" s="15"/>
+      <c r="N119" s="44"/>
+      <c r="O119" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="P119" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q119" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R119" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S119" s="22"/>
+      <c r="T119" s="44"/>
+      <c r="U119" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V119" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="W119" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X119" s="77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B120" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="D119" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E119" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" s="61" t="s">
+      <c r="D120" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="61" t="s">
         <v>16</v>
-      </c>
-      <c r="G119" s="45"/>
-      <c r="H119" s="44"/>
-      <c r="I119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="J119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="K119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="L119" s="15"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="O119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="P119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="44"/>
-      <c r="S119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="T119" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="U119" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D120" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F120" s="50" t="s">
-        <v>345</v>
       </c>
       <c r="G120" s="45"/>
       <c r="H120" s="44"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="44"/>
+      <c r="I120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L120" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M120" s="15"/>
       <c r="N120" s="44"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="31"/>
-      <c r="S120" s="44"/>
-      <c r="T120" s="31"/>
-      <c r="U120" s="31"/>
-    </row>
-    <row r="121" spans="1:22" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="71" t="s">
+      <c r="O120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="P120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R120" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S120" s="22"/>
+      <c r="T120" s="44"/>
+      <c r="U120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="V120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="W120" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="X120" s="77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G121" s="45"/>
+      <c r="H121" s="44"/>
+      <c r="L121" s="77"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="44"/>
+      <c r="O121" s="44"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="44"/>
+      <c r="S121" s="22"/>
+      <c r="T121" s="31"/>
+      <c r="U121" s="44"/>
+      <c r="V121" s="31"/>
+      <c r="W121" s="31"/>
+      <c r="X121" s="44"/>
+    </row>
+    <row r="122" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="B121" s="71" t="s">
+      <c r="B122" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="71" t="s">
+      <c r="C122" s="71" t="s">
         <v>338</v>
       </c>
-      <c r="D121" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F121" s="71"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="44" t="s">
+      <c r="D122" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="71"/>
+      <c r="G122" s="72"/>
+      <c r="H122" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="I121" s="44" t="s">
+      <c r="I122" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="J122" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="K122" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="L121" s="72"/>
-      <c r="M121" s="71" t="s">
+      <c r="L122" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M122" s="72"/>
+      <c r="N122" s="71" t="s">
         <v>343</v>
       </c>
-      <c r="N121" s="74" t="s">
+      <c r="O122" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="O121" s="74" t="s">
+      <c r="P122" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="P121" s="74" t="s">
+      <c r="Q122" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="Q121" s="72"/>
-      <c r="R121" s="71" t="s">
+      <c r="R122" s="77" t="s">
+        <v>343</v>
+      </c>
+      <c r="S122" s="72"/>
+      <c r="T122" s="71" t="s">
         <v>344</v>
       </c>
-      <c r="S121" s="74" t="s">
+      <c r="U122" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="T121" s="74" t="s">
+      <c r="V122" s="74" t="s">
         <v>344</v>
       </c>
-      <c r="U121" s="74" t="s">
+      <c r="W122" s="74" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A122" s="59" t="s">
+      <c r="X122" s="77" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A123" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="B122" s="59" t="s">
+      <c r="B123" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="C123" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="D122" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E122" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F122" s="50" t="s">
+      <c r="D123" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" s="50" t="s">
         <v>249</v>
-      </c>
-      <c r="G122" s="45"/>
-      <c r="H122" s="44"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="37"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="31"/>
-      <c r="S122" s="31"/>
-      <c r="T122" s="31"/>
-      <c r="U122" s="31"/>
-      <c r="V122" s="42"/>
-    </row>
-    <row r="123" spans="1:22" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A123" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D123" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E123" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="50" t="s">
-        <v>220</v>
       </c>
       <c r="G123" s="45"/>
       <c r="H123" s="44"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="58"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="44"/>
-      <c r="N123" s="58"/>
-      <c r="O123" s="58"/>
-      <c r="P123" s="58"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="31"/>
-      <c r="S123" s="31"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="77"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="37"/>
+      <c r="R123" s="77"/>
+      <c r="S123" s="22"/>
       <c r="T123" s="31"/>
       <c r="U123" s="31"/>
-      <c r="V123" s="46"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A124" s="40"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="38"/>
-      <c r="M124" s="44"/>
-      <c r="Q124" s="22"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="V123" s="31"/>
+      <c r="W123" s="31"/>
+      <c r="X123" s="77"/>
+      <c r="Y123" s="42"/>
+    </row>
+    <row r="124" spans="1:25" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A124" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G124" s="45"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="58"/>
+      <c r="J124" s="58"/>
+      <c r="K124" s="58"/>
+      <c r="L124" s="77"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="44"/>
+      <c r="O124" s="58"/>
+      <c r="P124" s="58"/>
+      <c r="Q124" s="58"/>
+      <c r="R124" s="77"/>
+      <c r="S124" s="22"/>
+      <c r="T124" s="31"/>
+      <c r="U124" s="31"/>
+      <c r="V124" s="31"/>
+      <c r="W124" s="31"/>
+      <c r="X124" s="77"/>
+      <c r="Y124" s="46"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A125" s="40"/>
       <c r="B125" s="40"/>
       <c r="C125" s="40"/>
@@ -5839,9 +6296,10 @@
       <c r="F125" s="40"/>
       <c r="G125" s="47"/>
       <c r="H125" s="38"/>
-      <c r="Q125" s="22"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="N125" s="44"/>
+      <c r="S125" s="22"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A126" s="40"/>
       <c r="B126" s="40"/>
       <c r="C126" s="40"/>
@@ -5850,9 +6308,9 @@
       <c r="F126" s="40"/>
       <c r="G126" s="47"/>
       <c r="H126" s="38"/>
-      <c r="Q126" s="22"/>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S126" s="22"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A127" s="40"/>
       <c r="B127" s="40"/>
       <c r="C127" s="40"/>
@@ -5861,9 +6319,9 @@
       <c r="F127" s="40"/>
       <c r="G127" s="47"/>
       <c r="H127" s="38"/>
-      <c r="Q127" s="22"/>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S127" s="22"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A128" s="40"/>
       <c r="B128" s="40"/>
       <c r="C128" s="40"/>
@@ -5872,9 +6330,9 @@
       <c r="F128" s="40"/>
       <c r="G128" s="47"/>
       <c r="H128" s="38"/>
-      <c r="Q128" s="22"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S128" s="22"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A129" s="40"/>
       <c r="B129" s="40"/>
       <c r="C129" s="40"/>
@@ -5883,9 +6341,9 @@
       <c r="F129" s="40"/>
       <c r="G129" s="47"/>
       <c r="H129" s="38"/>
-      <c r="Q129" s="22"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S129" s="22"/>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A130" s="40"/>
       <c r="B130" s="40"/>
       <c r="C130" s="40"/>
@@ -5894,9 +6352,9 @@
       <c r="F130" s="40"/>
       <c r="G130" s="47"/>
       <c r="H130" s="38"/>
-      <c r="Q130" s="22"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S130" s="22"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A131" s="40"/>
       <c r="B131" s="40"/>
       <c r="C131" s="40"/>
@@ -5905,9 +6363,9 @@
       <c r="F131" s="40"/>
       <c r="G131" s="47"/>
       <c r="H131" s="38"/>
-      <c r="Q131" s="22"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S131" s="22"/>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A132" s="40"/>
       <c r="B132" s="40"/>
       <c r="C132" s="40"/>
@@ -5916,19 +6374,20 @@
       <c r="F132" s="40"/>
       <c r="G132" s="47"/>
       <c r="H132" s="38"/>
-      <c r="Q132" s="22"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S132" s="22"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A133" s="40"/>
       <c r="B133" s="40"/>
       <c r="C133" s="40"/>
       <c r="D133" s="40"/>
       <c r="E133" s="40"/>
-      <c r="F133" s="48"/>
+      <c r="F133" s="40"/>
       <c r="G133" s="47"/>
-      <c r="Q133" s="22"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="H133" s="38"/>
+      <c r="S133" s="22"/>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A134" s="40"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
@@ -5936,9 +6395,9 @@
       <c r="E134" s="40"/>
       <c r="F134" s="48"/>
       <c r="G134" s="47"/>
-      <c r="Q134" s="22"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S134" s="22"/>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A135" s="40"/>
       <c r="B135" s="40"/>
       <c r="C135" s="40"/>
@@ -5946,9 +6405,9 @@
       <c r="E135" s="40"/>
       <c r="F135" s="48"/>
       <c r="G135" s="47"/>
-      <c r="Q135" s="22"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S135" s="22"/>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A136" s="40"/>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
@@ -5956,9 +6415,9 @@
       <c r="E136" s="40"/>
       <c r="F136" s="48"/>
       <c r="G136" s="47"/>
-      <c r="Q136" s="22"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S136" s="22"/>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A137" s="40"/>
       <c r="B137" s="40"/>
       <c r="C137" s="40"/>
@@ -5966,9 +6425,9 @@
       <c r="E137" s="40"/>
       <c r="F137" s="48"/>
       <c r="G137" s="47"/>
-      <c r="Q137" s="22"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S137" s="22"/>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A138" s="40"/>
       <c r="B138" s="40"/>
       <c r="C138" s="40"/>
@@ -5976,9 +6435,9 @@
       <c r="E138" s="40"/>
       <c r="F138" s="48"/>
       <c r="G138" s="47"/>
-      <c r="Q138" s="22"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S138" s="22"/>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A139" s="40"/>
       <c r="B139" s="40"/>
       <c r="C139" s="40"/>
@@ -5986,9 +6445,9 @@
       <c r="E139" s="40"/>
       <c r="F139" s="48"/>
       <c r="G139" s="47"/>
-      <c r="Q139" s="22"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S139" s="22"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A140" s="40"/>
       <c r="B140" s="40"/>
       <c r="C140" s="40"/>
@@ -5996,9 +6455,9 @@
       <c r="E140" s="40"/>
       <c r="F140" s="48"/>
       <c r="G140" s="47"/>
-      <c r="Q140" s="22"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S140" s="22"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A141" s="40"/>
       <c r="B141" s="40"/>
       <c r="C141" s="40"/>
@@ -6006,9 +6465,9 @@
       <c r="E141" s="40"/>
       <c r="F141" s="48"/>
       <c r="G141" s="47"/>
-      <c r="Q141" s="22"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S141" s="22"/>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A142" s="40"/>
       <c r="B142" s="40"/>
       <c r="C142" s="40"/>
@@ -6016,9 +6475,9 @@
       <c r="E142" s="40"/>
       <c r="F142" s="48"/>
       <c r="G142" s="47"/>
-      <c r="Q142" s="22"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S142" s="22"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A143" s="40"/>
       <c r="B143" s="40"/>
       <c r="C143" s="40"/>
@@ -6026,9 +6485,9 @@
       <c r="E143" s="40"/>
       <c r="F143" s="48"/>
       <c r="G143" s="47"/>
-      <c r="Q143" s="22"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S143" s="22"/>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A144" s="40"/>
       <c r="B144" s="40"/>
       <c r="C144" s="40"/>
@@ -6036,29 +6495,29 @@
       <c r="E144" s="40"/>
       <c r="F144" s="48"/>
       <c r="G144" s="47"/>
-      <c r="Q144" s="22"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S144" s="22"/>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A145" s="40"/>
       <c r="B145" s="40"/>
       <c r="C145" s="40"/>
       <c r="D145" s="40"/>
       <c r="E145" s="40"/>
-      <c r="F145" s="40"/>
+      <c r="F145" s="48"/>
       <c r="G145" s="47"/>
-      <c r="Q145" s="22"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A146" s="40"/>
       <c r="B146" s="40"/>
       <c r="C146" s="40"/>
       <c r="D146" s="40"/>
       <c r="E146" s="40"/>
-      <c r="F146" s="48"/>
+      <c r="F146" s="40"/>
       <c r="G146" s="47"/>
-      <c r="Q146" s="22"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S146" s="22"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A147" s="40"/>
       <c r="B147" s="40"/>
       <c r="C147" s="40"/>
@@ -6066,9 +6525,9 @@
       <c r="E147" s="40"/>
       <c r="F147" s="48"/>
       <c r="G147" s="47"/>
-      <c r="Q147" s="22"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S147" s="22"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A148" s="40"/>
       <c r="B148" s="40"/>
       <c r="C148" s="40"/>
@@ -6076,9 +6535,9 @@
       <c r="E148" s="40"/>
       <c r="F148" s="48"/>
       <c r="G148" s="47"/>
-      <c r="Q148" s="22"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S148" s="22"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A149" s="40"/>
       <c r="B149" s="40"/>
       <c r="C149" s="40"/>
@@ -6086,9 +6545,9 @@
       <c r="E149" s="40"/>
       <c r="F149" s="48"/>
       <c r="G149" s="47"/>
-      <c r="Q149" s="22"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S149" s="22"/>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A150" s="40"/>
       <c r="B150" s="40"/>
       <c r="C150" s="40"/>
@@ -6096,9 +6555,9 @@
       <c r="E150" s="40"/>
       <c r="F150" s="48"/>
       <c r="G150" s="47"/>
-      <c r="Q150" s="22"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S150" s="22"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A151" s="40"/>
       <c r="B151" s="40"/>
       <c r="C151" s="40"/>
@@ -6106,19 +6565,19 @@
       <c r="E151" s="40"/>
       <c r="F151" s="48"/>
       <c r="G151" s="47"/>
-      <c r="Q151" s="22"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S151" s="22"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A152" s="40"/>
       <c r="B152" s="40"/>
       <c r="C152" s="40"/>
       <c r="D152" s="40"/>
       <c r="E152" s="40"/>
-      <c r="F152" s="40"/>
+      <c r="F152" s="48"/>
       <c r="G152" s="47"/>
-      <c r="Q152" s="22"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S152" s="22"/>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A153" s="40"/>
       <c r="B153" s="40"/>
       <c r="C153" s="40"/>
@@ -6126,9 +6585,9 @@
       <c r="E153" s="40"/>
       <c r="F153" s="40"/>
       <c r="G153" s="47"/>
-      <c r="Q153" s="22"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="S153" s="22"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A154" s="40"/>
       <c r="B154" s="40"/>
       <c r="C154" s="40"/>
@@ -6136,19 +6595,29 @@
       <c r="E154" s="40"/>
       <c r="F154" s="40"/>
       <c r="G154" s="47"/>
+      <c r="S154" s="22"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="40"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="Y46:Y47"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
